--- a/debug/TON_debug.xlsx
+++ b/debug/TON_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE479"/>
+  <dimension ref="A1:AE486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -48961,13 +48961,13 @@
         <v>2.154</v>
       </c>
       <c r="C479" t="n">
-        <v>2.205</v>
+        <v>2.243</v>
       </c>
       <c r="D479" t="n">
         <v>2.125</v>
       </c>
       <c r="E479" t="n">
-        <v>2.19</v>
+        <v>2.21</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
@@ -49005,7 +49005,7 @@
         <v>2.013</v>
       </c>
       <c r="Q479" t="n">
-        <v>9.538003</v>
+        <v>11.425733</v>
       </c>
       <c r="R479" t="n">
         <v>79.90000000000001</v>
@@ -49050,6 +49050,713 @@
       </c>
       <c r="AE479" t="n">
         <v>2.125</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="C480" t="n">
+        <v>2.298</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2.175</v>
+      </c>
+      <c r="E480" t="n">
+        <v>2.236</v>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G480" t="b">
+        <v>1</v>
+      </c>
+      <c r="H480" t="n">
+        <v>6</v>
+      </c>
+      <c r="I480" t="n">
+        <v/>
+      </c>
+      <c r="J480" t="n">
+        <v/>
+      </c>
+      <c r="K480" t="n">
+        <v/>
+      </c>
+      <c r="L480" t="n">
+        <v/>
+      </c>
+      <c r="M480" t="n">
+        <v/>
+      </c>
+      <c r="N480" t="n">
+        <v/>
+      </c>
+      <c r="O480" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="P480" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="Q480" t="n">
+        <v>14.157973</v>
+      </c>
+      <c r="R480" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="S480" t="n">
+        <v>4</v>
+      </c>
+      <c r="T480" t="n">
+        <v>4.07064</v>
+      </c>
+      <c r="U480" t="n">
+        <v>3.77988</v>
+      </c>
+      <c r="V480" t="n">
+        <v>3.34374</v>
+      </c>
+      <c r="W480" t="n">
+        <v>2.98029</v>
+      </c>
+      <c r="X480" t="n">
+        <v>2.54415</v>
+      </c>
+      <c r="Y480" t="n">
+        <v>2.03532</v>
+      </c>
+      <c r="Z480" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AA480" t="n">
+        <v>1.38111</v>
+      </c>
+      <c r="AB480" t="n">
+        <v>3.234396</v>
+      </c>
+      <c r="AC480" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD480" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AE480" t="n">
+        <v>2.175</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>2.235</v>
+      </c>
+      <c r="C481" t="n">
+        <v>2.318</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2.127</v>
+      </c>
+      <c r="E481" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G481" t="b">
+        <v>1</v>
+      </c>
+      <c r="H481" t="n">
+        <v>6</v>
+      </c>
+      <c r="I481" t="n">
+        <v/>
+      </c>
+      <c r="J481" t="n">
+        <v/>
+      </c>
+      <c r="K481" t="n">
+        <v/>
+      </c>
+      <c r="L481" t="n">
+        <v/>
+      </c>
+      <c r="M481" t="n">
+        <v/>
+      </c>
+      <c r="N481" t="n">
+        <v/>
+      </c>
+      <c r="O481" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="P481" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>15.151515</v>
+      </c>
+      <c r="R481" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="S481" t="n">
+        <v>4</v>
+      </c>
+      <c r="T481" t="n">
+        <v>4.07064</v>
+      </c>
+      <c r="U481" t="n">
+        <v>3.77988</v>
+      </c>
+      <c r="V481" t="n">
+        <v>3.34374</v>
+      </c>
+      <c r="W481" t="n">
+        <v>2.98029</v>
+      </c>
+      <c r="X481" t="n">
+        <v>2.54415</v>
+      </c>
+      <c r="Y481" t="n">
+        <v>2.03532</v>
+      </c>
+      <c r="Z481" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AA481" t="n">
+        <v>1.38111</v>
+      </c>
+      <c r="AB481" t="n">
+        <v>3.234396</v>
+      </c>
+      <c r="AC481" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD481" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AE481" t="n">
+        <v>2.127</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>2.139</v>
+      </c>
+      <c r="C482" t="n">
+        <v>2.159</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="E482" t="n">
+        <v>2.113</v>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G482" t="b">
+        <v>1</v>
+      </c>
+      <c r="H482" t="n">
+        <v>6</v>
+      </c>
+      <c r="I482" t="n">
+        <v/>
+      </c>
+      <c r="J482" t="n">
+        <v/>
+      </c>
+      <c r="K482" t="n">
+        <v/>
+      </c>
+      <c r="L482" t="n">
+        <v/>
+      </c>
+      <c r="M482" t="n">
+        <v/>
+      </c>
+      <c r="N482" t="n">
+        <v/>
+      </c>
+      <c r="O482" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="P482" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>7.252856</v>
+      </c>
+      <c r="R482" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="S482" t="n">
+        <v>4</v>
+      </c>
+      <c r="T482" t="n">
+        <v>4.07064</v>
+      </c>
+      <c r="U482" t="n">
+        <v>3.77988</v>
+      </c>
+      <c r="V482" t="n">
+        <v>3.34374</v>
+      </c>
+      <c r="W482" t="n">
+        <v>2.98029</v>
+      </c>
+      <c r="X482" t="n">
+        <v>2.54415</v>
+      </c>
+      <c r="Y482" t="n">
+        <v>2.03532</v>
+      </c>
+      <c r="Z482" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AA482" t="n">
+        <v>1.38111</v>
+      </c>
+      <c r="AB482" t="n">
+        <v>3.234396</v>
+      </c>
+      <c r="AC482" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD482" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AE482" t="n">
+        <v>2.061</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>2.113</v>
+      </c>
+      <c r="C483" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="D483" t="n">
+        <v>2.106</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G483" t="b">
+        <v>1</v>
+      </c>
+      <c r="H483" t="n">
+        <v>6</v>
+      </c>
+      <c r="I483" t="n">
+        <v/>
+      </c>
+      <c r="J483" t="n">
+        <v/>
+      </c>
+      <c r="K483" t="n">
+        <v/>
+      </c>
+      <c r="L483" t="n">
+        <v/>
+      </c>
+      <c r="M483" t="n">
+        <v/>
+      </c>
+      <c r="N483" t="n">
+        <v/>
+      </c>
+      <c r="O483" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="P483" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="Q483" t="n">
+        <v>6.706408</v>
+      </c>
+      <c r="R483" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="S483" t="n">
+        <v>4</v>
+      </c>
+      <c r="T483" t="n">
+        <v>4.07064</v>
+      </c>
+      <c r="U483" t="n">
+        <v>3.77988</v>
+      </c>
+      <c r="V483" t="n">
+        <v>3.34374</v>
+      </c>
+      <c r="W483" t="n">
+        <v>2.98029</v>
+      </c>
+      <c r="X483" t="n">
+        <v>2.54415</v>
+      </c>
+      <c r="Y483" t="n">
+        <v>2.03532</v>
+      </c>
+      <c r="Z483" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AA483" t="n">
+        <v>1.38111</v>
+      </c>
+      <c r="AB483" t="n">
+        <v>3.234396</v>
+      </c>
+      <c r="AC483" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD483" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AE483" t="n">
+        <v>2.106</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="C484" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="D484" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="E484" t="n">
+        <v>2.167</v>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G484" t="b">
+        <v>1</v>
+      </c>
+      <c r="H484" t="n">
+        <v>6</v>
+      </c>
+      <c r="I484" t="n">
+        <v/>
+      </c>
+      <c r="J484" t="n">
+        <v/>
+      </c>
+      <c r="K484" t="n">
+        <v/>
+      </c>
+      <c r="L484" t="n">
+        <v/>
+      </c>
+      <c r="M484" t="n">
+        <v/>
+      </c>
+      <c r="N484" t="n">
+        <v/>
+      </c>
+      <c r="O484" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="P484" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="Q484" t="n">
+        <v>8.395429999999999</v>
+      </c>
+      <c r="R484" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="S484" t="n">
+        <v>4</v>
+      </c>
+      <c r="T484" t="n">
+        <v>4.07064</v>
+      </c>
+      <c r="U484" t="n">
+        <v>3.77988</v>
+      </c>
+      <c r="V484" t="n">
+        <v>3.34374</v>
+      </c>
+      <c r="W484" t="n">
+        <v>2.98029</v>
+      </c>
+      <c r="X484" t="n">
+        <v>2.54415</v>
+      </c>
+      <c r="Y484" t="n">
+        <v>2.03532</v>
+      </c>
+      <c r="Z484" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AA484" t="n">
+        <v>1.38111</v>
+      </c>
+      <c r="AB484" t="n">
+        <v>3.234396</v>
+      </c>
+      <c r="AC484" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD484" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AE484" t="n">
+        <v>2.116</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>2.168</v>
+      </c>
+      <c r="C485" t="n">
+        <v>2.178</v>
+      </c>
+      <c r="D485" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="E485" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G485" t="b">
+        <v>1</v>
+      </c>
+      <c r="H485" t="n">
+        <v>6</v>
+      </c>
+      <c r="I485" t="n">
+        <v/>
+      </c>
+      <c r="J485" t="n">
+        <v/>
+      </c>
+      <c r="K485" t="n">
+        <v/>
+      </c>
+      <c r="L485" t="n">
+        <v/>
+      </c>
+      <c r="M485" t="n">
+        <v/>
+      </c>
+      <c r="N485" t="n">
+        <v/>
+      </c>
+      <c r="O485" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="P485" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="Q485" t="n">
+        <v>8.196721</v>
+      </c>
+      <c r="R485" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="S485" t="n">
+        <v>4</v>
+      </c>
+      <c r="T485" t="n">
+        <v>4.07064</v>
+      </c>
+      <c r="U485" t="n">
+        <v>3.77988</v>
+      </c>
+      <c r="V485" t="n">
+        <v>3.34374</v>
+      </c>
+      <c r="W485" t="n">
+        <v>2.98029</v>
+      </c>
+      <c r="X485" t="n">
+        <v>2.54415</v>
+      </c>
+      <c r="Y485" t="n">
+        <v>2.03532</v>
+      </c>
+      <c r="Z485" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AA485" t="n">
+        <v>1.38111</v>
+      </c>
+      <c r="AB485" t="n">
+        <v>3.234396</v>
+      </c>
+      <c r="AC485" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD485" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AE485" t="n">
+        <v>2.133</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="C486" t="n">
+        <v>2.208</v>
+      </c>
+      <c r="D486" t="n">
+        <v>2.132</v>
+      </c>
+      <c r="E486" t="n">
+        <v>2.206</v>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G486" t="b">
+        <v>1</v>
+      </c>
+      <c r="H486" t="n">
+        <v>6</v>
+      </c>
+      <c r="I486" t="n">
+        <v/>
+      </c>
+      <c r="J486" t="n">
+        <v/>
+      </c>
+      <c r="K486" t="n">
+        <v/>
+      </c>
+      <c r="L486" t="n">
+        <v/>
+      </c>
+      <c r="M486" t="n">
+        <v/>
+      </c>
+      <c r="N486" t="n">
+        <v/>
+      </c>
+      <c r="O486" t="n">
+        <v>7.269</v>
+      </c>
+      <c r="P486" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="Q486" t="n">
+        <v>9.687034000000001</v>
+      </c>
+      <c r="R486" t="n">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="S486" t="n">
+        <v>4</v>
+      </c>
+      <c r="T486" t="n">
+        <v>4.07064</v>
+      </c>
+      <c r="U486" t="n">
+        <v>3.77988</v>
+      </c>
+      <c r="V486" t="n">
+        <v>3.34374</v>
+      </c>
+      <c r="W486" t="n">
+        <v>2.98029</v>
+      </c>
+      <c r="X486" t="n">
+        <v>2.54415</v>
+      </c>
+      <c r="Y486" t="n">
+        <v>2.03532</v>
+      </c>
+      <c r="Z486" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AA486" t="n">
+        <v>1.38111</v>
+      </c>
+      <c r="AB486" t="n">
+        <v>3.234396</v>
+      </c>
+      <c r="AC486" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD486" t="n">
+        <v>1.52649</v>
+      </c>
+      <c r="AE486" t="n">
+        <v>2.132</v>
       </c>
     </row>
   </sheetData>
